--- a/dashboards/NSE Indices.xlsx
+++ b/dashboards/NSE Indices.xlsx
@@ -11,6 +11,7 @@
     <sheet name="monthly_returns" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="quarterly_returns" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="rolling_12m" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="metadata" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37043,4 +37044,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>^NSEI</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NIFTY 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>^NSMIDCP</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>NIFTY NEXT 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>^CNX100</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>NIFTY 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>^CNX200</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>NIFTY 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>^NSEMDCP50</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>NIFTY MIDCAP 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>^CRSMID</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>^CRSMID</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>NIFTYMIDCAP150.NS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>NIFTY MIDCAP 150</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>^CRSLDX</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>NIFTY 500</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>MULTICAP.NS</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mirae Asset Nifty500 Multicap 50:25:25 ETF</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/dashboards/NSE Indices.xlsx
+++ b/dashboards/NSE Indices.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1024"/>
+  <dimension ref="A1:J1025"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31254,6 +31254,38 @@
       </c>
       <c r="J1024" t="n">
         <v>69453.6484375</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="3" t="n">
+        <v>46076</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>16.28000068664551</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>21882.099609375</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>26355.400390625</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>14331</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>23484.94921875</v>
+      </c>
+      <c r="G1025" t="n">
+        <v>59513.94921875</v>
+      </c>
+      <c r="H1025" t="n">
+        <v>25713</v>
+      </c>
+      <c r="I1025" t="n">
+        <v>16772.400390625</v>
+      </c>
+      <c r="J1025" t="n">
+        <v>69723.1015625</v>
       </c>
     </row>
   </sheetData>
@@ -31332,31 +31364,31 @@
         <v>46081</v>
       </c>
       <c r="B2" t="n">
-        <v>1.377584617096184</v>
+        <v>1.941142231892856</v>
       </c>
       <c r="C2" t="n">
-        <v>1.988277923950554</v>
+        <v>1.820301670192714</v>
       </c>
       <c r="D2" t="n">
-        <v>1.217283535055214</v>
+        <v>1.750445489247943</v>
       </c>
       <c r="E2" t="n">
-        <v>1.332570361207663</v>
+        <v>1.68842229758781</v>
       </c>
       <c r="F2" t="n">
-        <v>1.367014016768131</v>
+        <v>1.756750444117072</v>
       </c>
       <c r="G2" t="n">
         <v>1.851638175571613</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9897044724719528</v>
+        <v>1.549524215698139</v>
       </c>
       <c r="I2" t="n">
-        <v>1.312504212031818</v>
+        <v>0.4741460807512032</v>
       </c>
       <c r="J2" t="n">
-        <v>2.378833145755377</v>
+        <v>2.776023173141806</v>
       </c>
     </row>
     <row r="3">
@@ -32892,31 +32924,31 @@
         <v>46112</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.411088697114194</v>
+        <v>-1.86859230314127</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.610193364360313</v>
+        <v>-1.772242880863928</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.768498934717666</v>
+        <v>-1.251064587123152</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.738400183197442</v>
+        <v>-1.393332645267831</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.996312621735108</v>
+        <v>-1.619507530292741</v>
       </c>
       <c r="G2" t="n">
         <v>-1.604627270209724</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.136847168429901</v>
+        <v>-1.594358947718166</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.980411302871132</v>
+        <v>-2.791520650608093</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1285217041858688</v>
+        <v>0.5169813989865046</v>
       </c>
     </row>
     <row r="3">
@@ -33397,7 +33429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J113"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37039,6 +37071,38 @@
       </c>
       <c r="J113" t="n">
         <v>14.18320705202503</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="n">
+        <v>46076</v>
+      </c>
+      <c r="B114" t="n">
+        <v>12.19848676666817</v>
+      </c>
+      <c r="C114" t="n">
+        <v>16.41395716234124</v>
+      </c>
+      <c r="D114" t="n">
+        <v>12.12750061635386</v>
+      </c>
+      <c r="E114" t="n">
+        <v>12.83541367773422</v>
+      </c>
+      <c r="F114" t="n">
+        <v>12.34479741105017</v>
+      </c>
+      <c r="G114" t="n">
+        <v>16.96648296925121</v>
+      </c>
+      <c r="H114" t="n">
+        <v>11.64323299449284</v>
+      </c>
+      <c r="I114" t="n">
+        <v>17.64285473079075</v>
+      </c>
+      <c r="J114" t="n">
+        <v>14.39815507955584</v>
       </c>
     </row>
   </sheetData>

--- a/dashboards/NSE Indices.xlsx
+++ b/dashboards/NSE Indices.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1025"/>
+  <dimension ref="A1:J1026"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31276,7 +31276,7 @@
         <v>23484.94921875</v>
       </c>
       <c r="G1025" t="n">
-        <v>59513.94921875</v>
+        <v>59255.6484375</v>
       </c>
       <c r="H1025" t="n">
         <v>25713</v>
@@ -31286,6 +31286,38 @@
       </c>
       <c r="J1025" t="n">
         <v>69723.1015625</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="3" t="n">
+        <v>46077</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>16.17000007629395</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>21820.19921875</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>26112.19921875</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>14214.4501953125</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>23304.599609375</v>
+      </c>
+      <c r="G1026" t="n">
+        <v>59255.6484375</v>
+      </c>
+      <c r="H1026" t="n">
+        <v>25424.650390625</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>16718.75</v>
+      </c>
+      <c r="J1026" t="n">
+        <v>69778.453125</v>
       </c>
     </row>
   </sheetData>
@@ -31364,31 +31396,31 @@
         <v>46081</v>
       </c>
       <c r="B2" t="n">
-        <v>1.941142231892856</v>
+        <v>1.252346937514148</v>
       </c>
       <c r="C2" t="n">
-        <v>1.820301670192714</v>
+        <v>1.532270971153227</v>
       </c>
       <c r="D2" t="n">
-        <v>1.750445489247943</v>
+        <v>0.8115173297428724</v>
       </c>
       <c r="E2" t="n">
-        <v>1.68842229758781</v>
+        <v>0.8614202909055235</v>
       </c>
       <c r="F2" t="n">
-        <v>1.756750444117072</v>
+        <v>0.9753227295868694</v>
       </c>
       <c r="G2" t="n">
-        <v>1.851638175571613</v>
+        <v>1.409584538437847</v>
       </c>
       <c r="H2" t="n">
-        <v>1.549524215698139</v>
+        <v>0.4107319456474468</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4741460807512032</v>
+        <v>0.1527563536159793</v>
       </c>
       <c r="J2" t="n">
-        <v>2.776023173141806</v>
+        <v>2.857614687900645</v>
       </c>
     </row>
     <row r="3">
@@ -32924,31 +32956,31 @@
         <v>46112</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.86859230314127</v>
+        <v>-2.53164600621435</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.772242880863928</v>
+        <v>-2.050110939433913</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.251064587123152</v>
+        <v>-2.162295547680404</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.393332645267831</v>
+        <v>-2.195271646110708</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.619507530292741</v>
+        <v>-2.375007711356203</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.604627270209724</v>
+        <v>-2.031680120526747</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.594358947718166</v>
+        <v>-2.697895219554269</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.791520650608093</v>
+        <v>-3.102464389589676</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5169813989865046</v>
+        <v>0.5967795125748854</v>
       </c>
     </row>
     <row r="3">
@@ -33429,7 +33461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J114"/>
+  <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37093,7 +37125,7 @@
         <v>12.34479741105017</v>
       </c>
       <c r="G114" t="n">
-        <v>16.96648296925121</v>
+        <v>16.45882830462842</v>
       </c>
       <c r="H114" t="n">
         <v>11.64323299449284</v>
@@ -37103,6 +37135,38 @@
       </c>
       <c r="J114" t="n">
         <v>14.39815507955584</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="n">
+        <v>46077</v>
+      </c>
+      <c r="B115" t="n">
+        <v>12.44784386375244</v>
+      </c>
+      <c r="C115" t="n">
+        <v>18.93190250939951</v>
+      </c>
+      <c r="D115" t="n">
+        <v>11.94868535229332</v>
+      </c>
+      <c r="E115" t="n">
+        <v>13.08819180835325</v>
+      </c>
+      <c r="F115" t="n">
+        <v>12.9476426255712</v>
+      </c>
+      <c r="G115" t="n">
+        <v>19.33675292425057</v>
+      </c>
+      <c r="H115" t="n">
+        <v>10.88304410578191</v>
+      </c>
+      <c r="I115" t="n">
+        <v>20.04258145961963</v>
+      </c>
+      <c r="J115" t="n">
+        <v>17.16060415161573</v>
       </c>
     </row>
   </sheetData>

--- a/dashboards/NSE Indices.xlsx
+++ b/dashboards/NSE Indices.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1026"/>
+  <dimension ref="A1:J1027"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31308,7 +31308,7 @@
         <v>23304.599609375</v>
       </c>
       <c r="G1026" t="n">
-        <v>59255.6484375</v>
+        <v>59066.3515625</v>
       </c>
       <c r="H1026" t="n">
         <v>25424.650390625</v>
@@ -31318,6 +31318,38 @@
       </c>
       <c r="J1026" t="n">
         <v>69778.453125</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="3" t="n">
+        <v>46078</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>16.28000068664551</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>21958.80078125</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>26305.849609375</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>14317.400390625</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>23472.75</v>
+      </c>
+      <c r="G1027" t="n">
+        <v>59066.3515625</v>
+      </c>
+      <c r="H1027" t="n">
+        <v>25601.599609375</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>16718.75</v>
+      </c>
+      <c r="J1027" t="n">
+        <v>70405.203125</v>
       </c>
     </row>
   </sheetData>
@@ -31396,31 +31428,31 @@
         <v>46081</v>
       </c>
       <c r="B2" t="n">
-        <v>1.252346937514148</v>
+        <v>1.941142231892856</v>
       </c>
       <c r="C2" t="n">
-        <v>1.532270971153227</v>
+        <v>2.177202360628461</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8115173297428724</v>
+        <v>1.55914450380279</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8614202909055235</v>
+        <v>1.591923600971579</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9753227295868694</v>
+        <v>1.703893065274387</v>
       </c>
       <c r="G2" t="n">
-        <v>1.409584538437847</v>
+        <v>1.085623566710026</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4107319456474468</v>
+        <v>1.109565569666504</v>
       </c>
       <c r="I2" t="n">
         <v>0.1527563536159793</v>
       </c>
       <c r="J2" t="n">
-        <v>2.857614687900645</v>
+        <v>3.781481685785493</v>
       </c>
     </row>
     <row r="3">
@@ -32956,31 +32988,31 @@
         <v>46112</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.53164600621435</v>
+        <v>-1.86859230314127</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.050110939433913</v>
+        <v>-1.427934783552154</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.162295547680404</v>
+        <v>-1.436722434273685</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.195271646110708</v>
+        <v>-1.486906866033644</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.375007711356203</v>
+        <v>-1.670611117411103</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.031680120526747</v>
+        <v>-2.34464769899726</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.697895219554269</v>
+        <v>-2.020696864450078</v>
       </c>
       <c r="I2" t="n">
         <v>-3.102464389589676</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5967795125748854</v>
+        <v>1.500339691052344</v>
       </c>
     </row>
     <row r="3">
@@ -33461,7 +33493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J115"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37157,7 +37189,7 @@
         <v>12.9476426255712</v>
       </c>
       <c r="G115" t="n">
-        <v>19.33675292425057</v>
+        <v>18.95552218934375</v>
       </c>
       <c r="H115" t="n">
         <v>10.88304410578191</v>
@@ -37167,6 +37199,38 @@
       </c>
       <c r="J115" t="n">
         <v>17.16060415161573</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="n">
+        <v>46078</v>
+      </c>
+      <c r="B116" t="n">
+        <v>14.56721071739329</v>
+      </c>
+      <c r="C116" t="n">
+        <v>19.28653261505469</v>
+      </c>
+      <c r="D116" t="n">
+        <v>12.69194247208325</v>
+      </c>
+      <c r="E116" t="n">
+        <v>13.76107735588574</v>
+      </c>
+      <c r="F116" t="n">
+        <v>13.65655939382653</v>
+      </c>
+      <c r="G116" t="n">
+        <v>18.48852044914251</v>
+      </c>
+      <c r="H116" t="n">
+        <v>11.50765308205754</v>
+      </c>
+      <c r="I116" t="n">
+        <v>19.446521657287</v>
+      </c>
+      <c r="J116" t="n">
+        <v>18.43446289100168</v>
       </c>
     </row>
   </sheetData>

--- a/dashboards/NSE Indices.xlsx
+++ b/dashboards/NSE Indices.xlsx
@@ -31325,31 +31325,31 @@
         <v>46078</v>
       </c>
       <c r="B1027" t="n">
-        <v>16.28000068664551</v>
+        <v>16.19000053405762</v>
       </c>
       <c r="C1027" t="n">
-        <v>21958.80078125</v>
+        <v>21820.19921875</v>
       </c>
       <c r="D1027" t="n">
-        <v>26305.849609375</v>
+        <v>26163.75</v>
       </c>
       <c r="E1027" t="n">
-        <v>14317.400390625</v>
+        <v>14242.5498046875</v>
       </c>
       <c r="F1027" t="n">
-        <v>23472.75</v>
+        <v>23357.400390625</v>
       </c>
       <c r="G1027" t="n">
         <v>59066.3515625</v>
       </c>
       <c r="H1027" t="n">
-        <v>25601.599609375</v>
+        <v>25459.55078125</v>
       </c>
       <c r="I1027" t="n">
-        <v>16718.75</v>
+        <v>16768.30078125</v>
       </c>
       <c r="J1027" t="n">
-        <v>70405.203125</v>
+        <v>70116.6484375</v>
       </c>
     </row>
   </sheetData>
@@ -31428,31 +31428,31 @@
         <v>46081</v>
       </c>
       <c r="B2" t="n">
-        <v>1.941142231892856</v>
+        <v>1.377584617096184</v>
       </c>
       <c r="C2" t="n">
-        <v>2.177202360628461</v>
+        <v>1.532270971153227</v>
       </c>
       <c r="D2" t="n">
-        <v>1.55914450380279</v>
+        <v>1.01053972666203</v>
       </c>
       <c r="E2" t="n">
-        <v>1.591923600971579</v>
+        <v>1.060806582477802</v>
       </c>
       <c r="F2" t="n">
-        <v>1.703893065274387</v>
+        <v>1.204100568144884</v>
       </c>
       <c r="G2" t="n">
         <v>1.085623566710026</v>
       </c>
       <c r="H2" t="n">
-        <v>1.109565569666504</v>
+        <v>0.5485656508903425</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1527563536159793</v>
+        <v>0.4495875952855277</v>
       </c>
       <c r="J2" t="n">
-        <v>3.781481685785493</v>
+        <v>3.356134812444878</v>
       </c>
     </row>
     <row r="3">
@@ -32988,31 +32988,31 @@
         <v>46112</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.86859230314127</v>
+        <v>-2.411088697114194</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.427934783552154</v>
+        <v>-2.050110939433913</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.436722434273685</v>
+        <v>-1.96914406097598</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.486906866033644</v>
+        <v>-2.001927927288683</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.670611117411103</v>
+        <v>-2.153820651772831</v>
       </c>
       <c r="G2" t="n">
         <v>-2.34464769899726</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.020696864450078</v>
+        <v>-2.564328723523934</v>
       </c>
       <c r="I2" t="n">
-        <v>-3.102464389589676</v>
+        <v>-2.815280922482655</v>
       </c>
       <c r="J2" t="n">
-        <v>1.500339691052344</v>
+        <v>1.084342044561692</v>
       </c>
     </row>
     <row r="3">
@@ -37206,31 +37206,31 @@
         <v>46078</v>
       </c>
       <c r="B116" t="n">
-        <v>14.56721071739329</v>
+        <v>13.93385285429487</v>
       </c>
       <c r="C116" t="n">
-        <v>19.28653261505469</v>
+        <v>18.53360899366226</v>
       </c>
       <c r="D116" t="n">
-        <v>12.69194247208325</v>
+        <v>12.08320026292509</v>
       </c>
       <c r="E116" t="n">
-        <v>13.76107735588574</v>
+        <v>13.16634066733542</v>
       </c>
       <c r="F116" t="n">
-        <v>13.65655939382653</v>
+        <v>13.0980291948092</v>
       </c>
       <c r="G116" t="n">
         <v>18.48852044914251</v>
       </c>
       <c r="H116" t="n">
-        <v>11.50765308205754</v>
+        <v>10.88896004377273</v>
       </c>
       <c r="I116" t="n">
-        <v>19.446521657287</v>
+        <v>19.80053547205864</v>
       </c>
       <c r="J116" t="n">
-        <v>18.43446289100168</v>
+        <v>17.9490609901213</v>
       </c>
     </row>
   </sheetData>

--- a/dashboards/NSE Indices.xlsx
+++ b/dashboards/NSE Indices.xlsx
@@ -31325,31 +31325,31 @@
         <v>46078</v>
       </c>
       <c r="B1027" t="n">
-        <v>16.19000053405762</v>
+        <v>16.21999931335449</v>
       </c>
       <c r="C1027" t="n">
-        <v>21820.19921875</v>
+        <v>21959.05078125</v>
       </c>
       <c r="D1027" t="n">
-        <v>26163.75</v>
+        <v>26200.5</v>
       </c>
       <c r="E1027" t="n">
-        <v>14242.5498046875</v>
+        <v>14268.650390625</v>
       </c>
       <c r="F1027" t="n">
-        <v>23357.400390625</v>
+        <v>23403.80078125</v>
       </c>
       <c r="G1027" t="n">
         <v>59066.3515625</v>
       </c>
       <c r="H1027" t="n">
-        <v>25459.55078125</v>
+        <v>25482.5</v>
       </c>
       <c r="I1027" t="n">
-        <v>16768.30078125</v>
+        <v>16828.69921875</v>
       </c>
       <c r="J1027" t="n">
-        <v>70116.6484375</v>
+        <v>70399.25</v>
       </c>
     </row>
   </sheetData>
@@ -31428,31 +31428,31 @@
         <v>46081</v>
       </c>
       <c r="B2" t="n">
-        <v>1.377584617096184</v>
+        <v>1.56542919314675</v>
       </c>
       <c r="C2" t="n">
-        <v>1.532270971153227</v>
+        <v>2.178365643671309</v>
       </c>
       <c r="D2" t="n">
-        <v>1.01053972666203</v>
+        <v>1.1524206624971</v>
       </c>
       <c r="E2" t="n">
-        <v>1.060806582477802</v>
+        <v>1.246008411033173</v>
       </c>
       <c r="F2" t="n">
-        <v>1.204100568144884</v>
+        <v>1.40514647739336</v>
       </c>
       <c r="G2" t="n">
         <v>1.085623566710026</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5485656508903425</v>
+        <v>0.6392000477006832</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4495875952855277</v>
+        <v>0.8114011277013056</v>
       </c>
       <c r="J2" t="n">
-        <v>3.356134812444878</v>
+        <v>3.772706423365424</v>
       </c>
     </row>
     <row r="3">
@@ -32988,31 +32988,31 @@
         <v>46112</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.411088697114194</v>
+        <v>-2.230264230441747</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.050110939433913</v>
+        <v>-1.426812544840228</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.96914406097598</v>
+        <v>-1.831448434173277</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.001927927288683</v>
+        <v>-1.822338799153678</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.153820651772831</v>
+        <v>-1.959445384534453</v>
       </c>
       <c r="G2" t="n">
         <v>-2.34464769899726</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.564328723523934</v>
+        <v>-2.476500287217676</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.815280922482655</v>
+        <v>-2.465227255284486</v>
       </c>
       <c r="J2" t="n">
-        <v>1.084342044561692</v>
+        <v>1.491757311016451</v>
       </c>
     </row>
     <row r="3">
@@ -37206,31 +37206,31 @@
         <v>46078</v>
       </c>
       <c r="B116" t="n">
-        <v>13.93385285429487</v>
+        <v>14.14496319360763</v>
       </c>
       <c r="C116" t="n">
-        <v>18.53360899366226</v>
+        <v>19.28789068708472</v>
       </c>
       <c r="D116" t="n">
-        <v>12.08320026292509</v>
+        <v>12.24063402565645</v>
       </c>
       <c r="E116" t="n">
-        <v>13.16634066733542</v>
+        <v>13.37372683345914</v>
       </c>
       <c r="F116" t="n">
-        <v>13.0980291948092</v>
+        <v>13.32270285907806</v>
       </c>
       <c r="G116" t="n">
         <v>18.48852044914251</v>
       </c>
       <c r="H116" t="n">
-        <v>10.88896004377273</v>
+        <v>10.98891526383414</v>
       </c>
       <c r="I116" t="n">
-        <v>19.80053547205864</v>
+        <v>20.23204998557851</v>
       </c>
       <c r="J116" t="n">
-        <v>17.9490609901213</v>
+        <v>18.42444864303982</v>
       </c>
     </row>
   </sheetData>

--- a/dashboards/NSE Indices.xlsx
+++ b/dashboards/NSE Indices.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1027"/>
+  <dimension ref="A1:J1028"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31340,7 +31340,7 @@
         <v>23403.80078125</v>
       </c>
       <c r="G1027" t="n">
-        <v>59066.3515625</v>
+        <v>59406.1015625</v>
       </c>
       <c r="H1027" t="n">
         <v>25482.5</v>
@@ -31350,6 +31350,38 @@
       </c>
       <c r="J1027" t="n">
         <v>70399.25</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="3" t="n">
+        <v>46079</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>21996.099609375</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>26168</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>14260</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>23388.900390625</v>
+      </c>
+      <c r="G1028" t="n">
+        <v>59406.1015625</v>
+      </c>
+      <c r="H1028" t="n">
+        <v>25456.349609375</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>16881</v>
+      </c>
+      <c r="J1028" t="n">
+        <v>70235.796875</v>
       </c>
     </row>
   </sheetData>
@@ -31428,31 +31460,31 @@
         <v>46081</v>
       </c>
       <c r="B2" t="n">
-        <v>1.56542919314675</v>
+        <v>1.753285712519803</v>
       </c>
       <c r="C2" t="n">
-        <v>2.178365643671309</v>
+        <v>2.350758737732472</v>
       </c>
       <c r="D2" t="n">
-        <v>1.1524206624971</v>
+        <v>1.026947726044325</v>
       </c>
       <c r="E2" t="n">
-        <v>1.246008411033173</v>
+        <v>1.184627867113419</v>
       </c>
       <c r="F2" t="n">
-        <v>1.40514647739336</v>
+        <v>1.340585327346777</v>
       </c>
       <c r="G2" t="n">
-        <v>1.085623566710026</v>
+        <v>1.667068665286142</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6392000477006832</v>
+        <v>0.5359231167310075</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8114011277013056</v>
+        <v>1.124706093780414</v>
       </c>
       <c r="J2" t="n">
-        <v>3.772706423365424</v>
+        <v>3.531766737862996</v>
       </c>
     </row>
     <row r="3">
@@ -32988,31 +33020,31 @@
         <v>46112</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.230264230441747</v>
+        <v>-2.049428266791509</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.426812544840228</v>
+        <v>-1.260502028227284</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.831448434173277</v>
+        <v>-1.953220076923967</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.822338799153678</v>
+        <v>-1.881859152991361</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.959445384534453</v>
+        <v>-2.021864415294294</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.34464769899726</v>
+        <v>-1.782933540824505</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.476500287217676</v>
+        <v>-2.576579856043582</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.465227255284486</v>
+        <v>-2.16210550194621</v>
       </c>
       <c r="J2" t="n">
-        <v>1.491757311016451</v>
+        <v>1.256113537904846</v>
       </c>
     </row>
     <row r="3">
@@ -33493,7 +33525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J116"/>
+  <dimension ref="A1:J117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37221,7 +37253,7 @@
         <v>13.32270285907806</v>
       </c>
       <c r="G116" t="n">
-        <v>18.48852044914251</v>
+        <v>19.17006711247415</v>
       </c>
       <c r="H116" t="n">
         <v>10.98891526383414</v>
@@ -37231,6 +37263,38 @@
       </c>
       <c r="J116" t="n">
         <v>18.42444864303982</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="n">
+        <v>46079</v>
+      </c>
+      <c r="B117" t="n">
+        <v>14.84099249529061</v>
+      </c>
+      <c r="C117" t="n">
+        <v>19.70112989035901</v>
+      </c>
+      <c r="D117" t="n">
+        <v>12.1578626309752</v>
+      </c>
+      <c r="E117" t="n">
+        <v>13.38922927186239</v>
+      </c>
+      <c r="F117" t="n">
+        <v>13.47555210883844</v>
+      </c>
+      <c r="G117" t="n">
+        <v>19.40577107874763</v>
+      </c>
+      <c r="H117" t="n">
+        <v>10.94363003590231</v>
+      </c>
+      <c r="I117" t="n">
+        <v>20.606569382178</v>
+      </c>
+      <c r="J117" t="n">
+        <v>18.14383109164661</v>
       </c>
     </row>
   </sheetData>

--- a/dashboards/NSE Indices.xlsx
+++ b/dashboards/NSE Indices.xlsx
@@ -31360,28 +31360,28 @@
         <v>16.25</v>
       </c>
       <c r="C1028" t="n">
-        <v>21996.099609375</v>
+        <v>22024.349609375</v>
       </c>
       <c r="D1028" t="n">
-        <v>26168</v>
+        <v>26200.5</v>
       </c>
       <c r="E1028" t="n">
-        <v>14260</v>
+        <v>14268.650390625</v>
       </c>
       <c r="F1028" t="n">
-        <v>23388.900390625</v>
+        <v>23410.349609375</v>
       </c>
       <c r="G1028" t="n">
         <v>59406.1015625</v>
       </c>
       <c r="H1028" t="n">
-        <v>25456.349609375</v>
+        <v>25472.55078125</v>
       </c>
       <c r="I1028" t="n">
-        <v>16881</v>
+        <v>16896.19921875</v>
       </c>
       <c r="J1028" t="n">
-        <v>70235.796875</v>
+        <v>70360.546875</v>
       </c>
     </row>
   </sheetData>
@@ -31463,28 +31463,28 @@
         <v>1.753285712519803</v>
       </c>
       <c r="C2" t="n">
-        <v>2.350758737732472</v>
+        <v>2.482209721574558</v>
       </c>
       <c r="D2" t="n">
-        <v>1.026947726044325</v>
+        <v>1.1524206624971</v>
       </c>
       <c r="E2" t="n">
-        <v>1.184627867113419</v>
+        <v>1.246008411033173</v>
       </c>
       <c r="F2" t="n">
-        <v>1.340585327346777</v>
+        <v>1.433521564050344</v>
       </c>
       <c r="G2" t="n">
         <v>1.667068665286142</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5359231167310075</v>
+        <v>0.5999071440962789</v>
       </c>
       <c r="I2" t="n">
-        <v>1.124706093780414</v>
+        <v>1.215756181390693</v>
       </c>
       <c r="J2" t="n">
-        <v>3.531766737862996</v>
+        <v>3.715655701542508</v>
       </c>
     </row>
     <row r="3">
@@ -33023,28 +33023,28 @@
         <v>-2.049428266791509</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.260502028227284</v>
+        <v>-1.133689053780051</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.953220076923967</v>
+        <v>-1.831448434173277</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.881859152991361</v>
+        <v>-1.822338799153678</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.021864415294294</v>
+        <v>-1.932011774606834</v>
       </c>
       <c r="G2" t="n">
         <v>-1.782933540824505</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.576579856043582</v>
+        <v>-2.514576717391637</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.16210550194621</v>
+        <v>-2.074014775063016</v>
       </c>
       <c r="J2" t="n">
-        <v>1.256113537904846</v>
+        <v>1.435960577817186</v>
       </c>
     </row>
     <row r="3">
@@ -37273,28 +37273,28 @@
         <v>14.84099249529061</v>
       </c>
       <c r="C117" t="n">
-        <v>19.70112989035901</v>
+        <v>19.85486427870311</v>
       </c>
       <c r="D117" t="n">
-        <v>12.1578626309752</v>
+        <v>12.29715988470139</v>
       </c>
       <c r="E117" t="n">
-        <v>13.38922927186239</v>
+        <v>13.45801336203556</v>
       </c>
       <c r="F117" t="n">
-        <v>13.47555210883844</v>
+        <v>13.57961693870684</v>
       </c>
       <c r="G117" t="n">
         <v>19.40577107874763</v>
       </c>
       <c r="H117" t="n">
-        <v>10.94363003590231</v>
+        <v>11.01423783498698</v>
       </c>
       <c r="I117" t="n">
-        <v>20.606569382178</v>
+        <v>20.7151604390305</v>
       </c>
       <c r="J117" t="n">
-        <v>18.14383109164661</v>
+        <v>18.35367341684886</v>
       </c>
     </row>
   </sheetData>

--- a/dashboards/NSE Indices.xlsx
+++ b/dashboards/NSE Indices.xlsx
@@ -31360,28 +31360,28 @@
         <v>16.25</v>
       </c>
       <c r="C1028" t="n">
-        <v>22024.349609375</v>
+        <v>22087.150390625</v>
       </c>
       <c r="D1028" t="n">
-        <v>26200.5</v>
+        <v>26226.849609375</v>
       </c>
       <c r="E1028" t="n">
-        <v>14268.650390625</v>
+        <v>14297.5498046875</v>
       </c>
       <c r="F1028" t="n">
-        <v>23410.349609375</v>
+        <v>23448.5</v>
       </c>
       <c r="G1028" t="n">
         <v>59406.1015625</v>
       </c>
       <c r="H1028" t="n">
-        <v>25472.55078125</v>
+        <v>25496.55078125</v>
       </c>
       <c r="I1028" t="n">
-        <v>16896.19921875</v>
+        <v>16945.05078125</v>
       </c>
       <c r="J1028" t="n">
-        <v>70360.546875</v>
+        <v>70628.5</v>
       </c>
     </row>
   </sheetData>
@@ -31463,28 +31463,28 @@
         <v>1.753285712519803</v>
       </c>
       <c r="C2" t="n">
-        <v>2.482209721574558</v>
+        <v>2.774430057198085</v>
       </c>
       <c r="D2" t="n">
-        <v>1.1524206624971</v>
+        <v>1.254148750579098</v>
       </c>
       <c r="E2" t="n">
-        <v>1.246008411033173</v>
+        <v>1.451069873690369</v>
       </c>
       <c r="F2" t="n">
-        <v>1.433521564050344</v>
+        <v>1.598821464936417</v>
       </c>
       <c r="G2" t="n">
         <v>1.667068665286142</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5999071440962789</v>
+        <v>0.694691439245676</v>
       </c>
       <c r="I2" t="n">
-        <v>1.215756181390693</v>
+        <v>1.508398791427679</v>
       </c>
       <c r="J2" t="n">
-        <v>3.715655701542508</v>
+        <v>4.110634639185284</v>
       </c>
     </row>
     <row r="3">
@@ -33023,28 +33023,28 @@
         <v>-2.049428266791509</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.133689053780051</v>
+        <v>-0.8517791823491438</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.831448434173277</v>
+        <v>-1.732721196652276</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.822338799153678</v>
+        <v>-1.623491900178897</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.932011774606834</v>
+        <v>-1.772196474065213</v>
       </c>
       <c r="G2" t="n">
         <v>-1.782933540824505</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.514576717391637</v>
+        <v>-2.422726859916635</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.074014775063016</v>
+        <v>-1.790883798347176</v>
       </c>
       <c r="J2" t="n">
-        <v>1.435960577817186</v>
+        <v>1.822257783159964</v>
       </c>
     </row>
     <row r="3">
@@ -37273,28 +37273,28 @@
         <v>14.84099249529061</v>
       </c>
       <c r="C117" t="n">
-        <v>19.85486427870311</v>
+        <v>20.1966214359774</v>
       </c>
       <c r="D117" t="n">
-        <v>12.29715988470139</v>
+        <v>12.41009613770738</v>
       </c>
       <c r="E117" t="n">
-        <v>13.45801336203556</v>
+        <v>13.68780875382767</v>
       </c>
       <c r="F117" t="n">
-        <v>13.57961693870684</v>
+        <v>13.76471057573285</v>
       </c>
       <c r="G117" t="n">
         <v>19.40577107874763</v>
       </c>
       <c r="H117" t="n">
-        <v>11.01423783498698</v>
+        <v>11.11883441547552</v>
       </c>
       <c r="I117" t="n">
-        <v>20.7151604390305</v>
+        <v>21.06418119384856</v>
       </c>
       <c r="J117" t="n">
-        <v>18.35367341684886</v>
+        <v>18.80439812061807</v>
       </c>
     </row>
   </sheetData>

--- a/dashboards/NSE Indices.xlsx
+++ b/dashboards/NSE Indices.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1028"/>
+  <dimension ref="A1:J1029"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31372,7 +31372,7 @@
         <v>23448.5</v>
       </c>
       <c r="G1028" t="n">
-        <v>59406.1015625</v>
+        <v>59798.1484375</v>
       </c>
       <c r="H1028" t="n">
         <v>25496.55078125</v>
@@ -31382,6 +31382,38 @@
       </c>
       <c r="J1028" t="n">
         <v>70628.5</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="3" t="n">
+        <v>46080</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>16.13999938964844</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>21908.69921875</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>26012.849609375</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>14181.7998046875</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>23254.400390625</v>
+      </c>
+      <c r="G1029" t="n">
+        <v>59798.1484375</v>
+      </c>
+      <c r="H1029" t="n">
+        <v>25292.25</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>16824.650390625</v>
+      </c>
+      <c r="J1029" t="n">
+        <v>70003.703125</v>
       </c>
     </row>
   </sheetData>
@@ -31460,31 +31492,31 @@
         <v>46081</v>
       </c>
       <c r="B2" t="n">
-        <v>1.753285712519803</v>
+        <v>1.064490418141095</v>
       </c>
       <c r="C2" t="n">
-        <v>2.774430057198085</v>
+        <v>1.944073168322236</v>
       </c>
       <c r="D2" t="n">
-        <v>1.254148750579098</v>
+        <v>0.4279577228592402</v>
       </c>
       <c r="E2" t="n">
-        <v>1.451069873690369</v>
+        <v>0.6297430380930003</v>
       </c>
       <c r="F2" t="n">
-        <v>1.598821464936417</v>
+        <v>0.7578170698022024</v>
       </c>
       <c r="G2" t="n">
-        <v>1.667068665286142</v>
+        <v>2.33801416603916</v>
       </c>
       <c r="H2" t="n">
-        <v>0.694691439245676</v>
+        <v>-0.1121629586399386</v>
       </c>
       <c r="I2" t="n">
-        <v>1.508398791427679</v>
+        <v>0.7871468445329599</v>
       </c>
       <c r="J2" t="n">
-        <v>4.110634639185284</v>
+        <v>3.189646664404133</v>
       </c>
     </row>
     <row r="3">
@@ -33020,31 +33052,31 @@
         <v>46112</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.049428266791509</v>
+        <v>-2.712481969864577</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.8517791823491438</v>
+        <v>-1.652838435413362</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.732721196652276</v>
+        <v>-2.534540628918336</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.623491900178897</v>
+        <v>-2.419927720869031</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.772196474065213</v>
+        <v>-2.585296599623277</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.782933540824505</v>
+        <v>-1.134756115203073</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.422726859916635</v>
+        <v>-3.20460176157682</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.790883798347176</v>
+        <v>-2.488693212214432</v>
       </c>
       <c r="J2" t="n">
-        <v>1.822257783159964</v>
+        <v>0.9215133461641045</v>
       </c>
     </row>
     <row r="3">
@@ -33525,7 +33557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J117"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37285,7 +37317,7 @@
         <v>13.76471057573285</v>
       </c>
       <c r="G117" t="n">
-        <v>19.40577107874763</v>
+        <v>20.19378204356641</v>
       </c>
       <c r="H117" t="n">
         <v>11.11883441547552</v>
@@ -37295,6 +37327,38 @@
       </c>
       <c r="J117" t="n">
         <v>18.80439812061807</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="n">
+        <v>46080</v>
+      </c>
+      <c r="B118" t="n">
+        <v>13.10440695092887</v>
+      </c>
+      <c r="C118" t="n">
+        <v>17.5050483496608</v>
+      </c>
+      <c r="D118" t="n">
+        <v>11.31563036526289</v>
+      </c>
+      <c r="E118" t="n">
+        <v>12.33331198390066</v>
+      </c>
+      <c r="F118" t="n">
+        <v>12.16968068779865</v>
+      </c>
+      <c r="G118" t="n">
+        <v>18.3483139048731</v>
+      </c>
+      <c r="H118" t="n">
+        <v>10.28805588995409</v>
+      </c>
+      <c r="I118" t="n">
+        <v>18.79508139750401</v>
+      </c>
+      <c r="J118" t="n">
+        <v>16.36950506226022</v>
       </c>
     </row>
   </sheetData>

--- a/dashboards/NSE Indices.xlsx
+++ b/dashboards/NSE Indices.xlsx
@@ -31389,31 +31389,31 @@
         <v>46080</v>
       </c>
       <c r="B1029" t="n">
-        <v>16.13999938964844</v>
+        <v>16.15999984741211</v>
       </c>
       <c r="C1029" t="n">
-        <v>21908.69921875</v>
+        <v>21947.80078125</v>
       </c>
       <c r="D1029" t="n">
-        <v>26012.849609375</v>
+        <v>26030.349609375</v>
       </c>
       <c r="E1029" t="n">
-        <v>14181.7998046875</v>
+        <v>14297.5498046875</v>
       </c>
       <c r="F1029" t="n">
-        <v>23254.400390625</v>
+        <v>23278.44921875</v>
       </c>
       <c r="G1029" t="n">
         <v>59798.1484375</v>
       </c>
       <c r="H1029" t="n">
-        <v>25292.25</v>
+        <v>25299.150390625</v>
       </c>
       <c r="I1029" t="n">
-        <v>16824.650390625</v>
+        <v>16842.849609375</v>
       </c>
       <c r="J1029" t="n">
-        <v>70003.703125</v>
+        <v>70177.1015625</v>
       </c>
     </row>
   </sheetData>
@@ -31492,31 +31492,31 @@
         <v>46081</v>
       </c>
       <c r="B2" t="n">
-        <v>1.064490418141095</v>
+        <v>1.189728097723131</v>
       </c>
       <c r="C2" t="n">
-        <v>1.944073168322236</v>
+        <v>2.12601790674305</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4279577228592402</v>
+        <v>0.4955200732568832</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6297430380930003</v>
+        <v>1.451069873690369</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7578170698022024</v>
+        <v>0.8620170226824708</v>
       </c>
       <c r="G2" t="n">
         <v>2.33801416603916</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.1121629586399386</v>
+        <v>-0.08491093107134695</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7871468445329599</v>
+        <v>0.8961682678627625</v>
       </c>
       <c r="J2" t="n">
-        <v>3.189646664404133</v>
+        <v>3.445246335550611</v>
       </c>
     </row>
     <row r="3">
@@ -33052,31 +33052,31 @@
         <v>46112</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.712481969864577</v>
+        <v>-2.591924660764422</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.652838435413362</v>
+        <v>-1.477313286876747</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.534540628918336</v>
+        <v>-2.468971282821808</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.419927720869031</v>
+        <v>-1.623491900178897</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.585296599623277</v>
+        <v>-2.484553969429815</v>
       </c>
       <c r="G2" t="n">
         <v>-1.134756115203073</v>
       </c>
       <c r="H2" t="n">
-        <v>-3.20460176157682</v>
+        <v>-3.17819343260064</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.488693212214432</v>
+        <v>-2.383215263988059</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9215133461641045</v>
+        <v>1.171494874899981</v>
       </c>
     </row>
     <row r="3">
@@ -37334,31 +37334,31 @@
         <v>46080</v>
       </c>
       <c r="B118" t="n">
-        <v>13.10440695092887</v>
+        <v>13.24456432389372</v>
       </c>
       <c r="C118" t="n">
-        <v>17.5050483496608</v>
+        <v>17.7147655467538</v>
       </c>
       <c r="D118" t="n">
-        <v>11.31563036526289</v>
+        <v>11.390517336919</v>
       </c>
       <c r="E118" t="n">
-        <v>12.33331198390066</v>
+        <v>13.25016182251133</v>
       </c>
       <c r="F118" t="n">
-        <v>12.16968068779865</v>
+        <v>12.28568236173491</v>
       </c>
       <c r="G118" t="n">
         <v>18.3483139048731</v>
       </c>
       <c r="H118" t="n">
-        <v>10.28805588995409</v>
+        <v>10.31814537060183</v>
       </c>
       <c r="I118" t="n">
-        <v>18.79508139750401</v>
+        <v>18.92358199766995</v>
       </c>
       <c r="J118" t="n">
-        <v>16.36950506226022</v>
+        <v>16.65775110425052</v>
       </c>
     </row>
   </sheetData>

--- a/dashboards/NSE Indices.xlsx
+++ b/dashboards/NSE Indices.xlsx
@@ -31389,31 +31389,31 @@
         <v>46080</v>
       </c>
       <c r="B1029" t="n">
-        <v>16.15999984741211</v>
+        <v>16.09000015258789</v>
       </c>
       <c r="C1029" t="n">
-        <v>21947.80078125</v>
+        <v>21847.349609375</v>
       </c>
       <c r="D1029" t="n">
-        <v>26030.349609375</v>
+        <v>25897.55078125</v>
       </c>
       <c r="E1029" t="n">
-        <v>14297.5498046875</v>
+        <v>14121.0498046875</v>
       </c>
       <c r="F1029" t="n">
-        <v>23278.44921875</v>
+        <v>23166.849609375</v>
       </c>
       <c r="G1029" t="n">
         <v>59798.1484375</v>
       </c>
       <c r="H1029" t="n">
-        <v>25299.150390625</v>
+        <v>25178.650390625</v>
       </c>
       <c r="I1029" t="n">
-        <v>16842.849609375</v>
+        <v>16765.599609375</v>
       </c>
       <c r="J1029" t="n">
-        <v>70177.1015625</v>
+        <v>69710.8984375</v>
       </c>
     </row>
   </sheetData>
@@ -31492,31 +31492,31 @@
         <v>46081</v>
       </c>
       <c r="B2" t="n">
-        <v>1.189728097723131</v>
+        <v>0.7514081625084934</v>
       </c>
       <c r="C2" t="n">
-        <v>2.12601790674305</v>
+        <v>1.658605327236518</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4955200732568832</v>
+        <v>-0.01717712435332919</v>
       </c>
       <c r="E2" t="n">
-        <v>1.451069873690369</v>
+        <v>0.1986794937082204</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8620170226824708</v>
+        <v>0.3784727111722619</v>
       </c>
       <c r="G2" t="n">
         <v>2.33801416603916</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.08491093107134695</v>
+        <v>-0.560807079634007</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8961682678627625</v>
+        <v>0.4334063730849325</v>
       </c>
       <c r="J2" t="n">
-        <v>3.445246335550611</v>
+        <v>2.758035036789885</v>
       </c>
     </row>
     <row r="3">
@@ -33052,31 +33052,31 @@
         <v>46112</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.591924660764422</v>
+        <v>-3.01386374563718</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.477313286876747</v>
+        <v>-1.928234061821155</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.468971282821808</v>
+        <v>-2.966544558395579</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.623491900178897</v>
+        <v>-2.837927514449379</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.484553969429815</v>
+        <v>-2.952054428020279</v>
       </c>
       <c r="G2" t="n">
         <v>-1.134756115203073</v>
       </c>
       <c r="H2" t="n">
-        <v>-3.17819343260064</v>
+        <v>-3.639356258673054</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.383215263988059</v>
+        <v>-2.830936213574842</v>
       </c>
       <c r="J2" t="n">
-        <v>1.171494874899981</v>
+        <v>0.4993886462095087</v>
       </c>
     </row>
     <row r="3">
@@ -37334,31 +37334,31 @@
         <v>46080</v>
       </c>
       <c r="B118" t="n">
-        <v>13.24456432389372</v>
+        <v>12.75402688465954</v>
       </c>
       <c r="C118" t="n">
-        <v>17.7147655467538</v>
+        <v>17.17600604806797</v>
       </c>
       <c r="D118" t="n">
-        <v>11.390517336919</v>
+        <v>10.82223721818971</v>
       </c>
       <c r="E118" t="n">
-        <v>13.25016182251133</v>
+        <v>11.8521143364225</v>
       </c>
       <c r="F118" t="n">
-        <v>12.28568236173491</v>
+        <v>11.74737166190181</v>
       </c>
       <c r="G118" t="n">
         <v>18.3483139048731</v>
       </c>
       <c r="H118" t="n">
-        <v>10.31814537060183</v>
+        <v>9.792699404555316</v>
       </c>
       <c r="I118" t="n">
-        <v>18.92358199766995</v>
+        <v>18.37813708054581</v>
       </c>
       <c r="J118" t="n">
-        <v>16.65775110425052</v>
+        <v>15.8827660035644</v>
       </c>
     </row>
   </sheetData>

--- a/dashboards/NSE Indices.xlsx
+++ b/dashboards/NSE Indices.xlsx
@@ -31404,7 +31404,7 @@
         <v>23166.849609375</v>
       </c>
       <c r="G1029" t="n">
-        <v>59798.1484375</v>
+        <v>59115.6015625</v>
       </c>
       <c r="H1029" t="n">
         <v>25178.650390625</v>
@@ -31507,7 +31507,7 @@
         <v>0.3784727111722619</v>
       </c>
       <c r="G2" t="n">
-        <v>2.33801416603916</v>
+        <v>1.169909574377059</v>
       </c>
       <c r="H2" t="n">
         <v>-0.560807079634007</v>
@@ -33067,7 +33067,7 @@
         <v>-2.952054428020279</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.134756115203073</v>
+        <v>-2.263221879159127</v>
       </c>
       <c r="H2" t="n">
         <v>-3.639356258673054</v>
@@ -37349,7 +37349,7 @@
         <v>11.74737166190181</v>
       </c>
       <c r="G118" t="n">
-        <v>18.3483139048731</v>
+        <v>16.99746485807163</v>
       </c>
       <c r="H118" t="n">
         <v>9.792699404555316</v>
